--- a/Daisy-xls/ResearchPages/English/research-causes-and-prevention.xlsx
+++ b/Daisy-xls/ResearchPages/English/research-causes-and-prevention.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -299,7 +299,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,18 +308,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -342,6 +336,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -355,13 +364,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,9 +379,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -407,6 +413,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -713,7 +722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -723,7 +732,7 @@
     <col min="3" max="3" width="76.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="67.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -752,15 +761,17 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="20">
+        <v>916482</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>42079</v>
       </c>
     </row>
@@ -768,17 +779,19 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="20">
+        <v>911742</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>42065</v>
       </c>
     </row>
@@ -786,15 +799,17 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="20">
+        <v>908136</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>42048</v>
       </c>
     </row>
@@ -802,15 +817,17 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="20">
+        <v>905761</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>42044</v>
       </c>
     </row>
@@ -818,15 +835,17 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="20">
+        <v>892292</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>42011</v>
       </c>
     </row>
@@ -834,15 +853,17 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="20">
+        <v>881866</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>41988</v>
       </c>
     </row>
@@ -850,15 +871,17 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="20">
+        <v>870062</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>41984</v>
       </c>
     </row>
@@ -866,15 +889,17 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="20">
+        <v>860263</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>41963</v>
       </c>
     </row>
@@ -882,15 +907,17 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="20">
+        <v>836252</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>41914</v>
       </c>
     </row>
@@ -898,15 +925,17 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="20">
+        <v>800243</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>41828</v>
       </c>
     </row>
@@ -914,17 +943,19 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="20">
+        <v>759574</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>41750</v>
       </c>
     </row>
@@ -932,15 +963,17 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="20">
+        <v>655586</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>41582</v>
       </c>
     </row>
@@ -948,15 +981,17 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="20">
+        <v>591260</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>41457</v>
       </c>
     </row>
@@ -964,15 +999,17 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="20">
+        <v>525098</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>41337</v>
       </c>
     </row>
@@ -980,15 +1017,17 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="20">
+        <v>497641</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>41298</v>
       </c>
     </row>
@@ -996,15 +1035,17 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="20">
+        <v>459325</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>41219</v>
       </c>
     </row>
@@ -1012,15 +1053,17 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="20">
+        <v>441136</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>41187</v>
       </c>
     </row>
@@ -1028,17 +1071,19 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="20">
+        <v>819943</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>41128</v>
       </c>
     </row>
@@ -1046,15 +1091,17 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="20">
+        <v>314962</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>41067</v>
       </c>
     </row>
@@ -1062,15 +1109,17 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="20">
+        <v>254763</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>40996</v>
       </c>
     </row>
@@ -1078,15 +1127,17 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="20">
+        <v>254313</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>40989</v>
       </c>
     </row>
@@ -1094,17 +1145,19 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="20">
+        <v>13750</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>40879</v>
       </c>
     </row>
@@ -1112,17 +1165,19 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="20">
+        <v>819944</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>40862</v>
       </c>
     </row>
@@ -1130,17 +1185,19 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="20">
+        <v>821979</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>40750</v>
       </c>
     </row>
@@ -1148,17 +1205,19 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="20">
+        <v>819941</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>40722</v>
       </c>
     </row>
@@ -1166,17 +1225,19 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="20">
+        <v>819784</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>40694</v>
       </c>
     </row>
@@ -1184,17 +1245,19 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="20">
+        <v>70025</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>40632</v>
       </c>
     </row>
@@ -1202,17 +1265,19 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="20">
+        <v>819940</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <v>40610</v>
       </c>
     </row>
